--- a/data_management/management/4. income imputation/output/VEN_income_imputation_2019_paramostrar.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation_2019_paramostrar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\4. income imputation\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\4. income imputation\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCBC9B9-4AA7-41B0-8E36-CAE757E57813}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148E620-60ED-41F2-ABD2-014387618E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="841" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missing_values" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>Convive</t>
   </si>
   <si>
-    <t>Estados civil</t>
-  </si>
-  <si>
     <t>Monetary labor income</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>kd_bene1</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -557,12 +557,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,34 +883,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="34.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8">
+      <c r="A4" s="21" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29">
-      <c r="A4" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="B4" s="22">
         <v>168</v>
@@ -916,9 +919,9 @@
         <v>1.3886592825260373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
-      <c r="A5" s="21" t="s">
-        <v>62</v>
+    <row r="5" spans="1:3" ht="28.8">
+      <c r="A5" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="22">
         <v>621</v>
@@ -927,9 +930,9 @@
         <v>5.1330798479087454</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="21" t="s">
-        <v>63</v>
+    <row r="6" spans="1:3" ht="28.8">
+      <c r="A6" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="B6" s="22">
         <v>1540</v>
@@ -939,8 +942,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>64</v>
+      <c r="A7" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="22">
         <v>0</v>
@@ -951,7 +954,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="23">
         <v>2161</v>
@@ -962,7 +965,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="22">
         <v>9700</v>
@@ -973,7 +976,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="25">
         <v>12098</v>
@@ -984,12 +987,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8">
+      <c r="A15" s="21" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29">
-      <c r="A15" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="B15" s="22">
         <v>57</v>
@@ -998,9 +1001,9 @@
         <v>0.96839959225280325</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29">
-      <c r="A16" s="21" t="s">
-        <v>70</v>
+    <row r="16" spans="1:3" ht="28.8">
+      <c r="A16" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="22">
         <v>147</v>
@@ -1009,9 +1012,9 @@
         <v>2.4974515800203876</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29">
-      <c r="A17" s="21" t="s">
-        <v>71</v>
+    <row r="17" spans="1:3" ht="28.8">
+      <c r="A17" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="22">
         <v>18</v>
@@ -1021,8 +1024,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="21" t="s">
-        <v>64</v>
+      <c r="A18" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="22">
         <v>0</v>
@@ -1033,7 +1036,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="23">
         <v>165</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="22">
         <v>5658</v>
@@ -1053,9 +1056,9 @@
         <v>96.126401630988795</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29">
+    <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="25">
         <v>5886</v>
@@ -1066,12 +1069,12 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8">
+      <c r="A26" s="21" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="29">
-      <c r="A26" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="B26" s="22">
         <v>15</v>
@@ -1080,9 +1083,9 @@
         <v>1.8382352941176472</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="29">
-      <c r="A27" s="21" t="s">
-        <v>75</v>
+    <row r="27" spans="1:3" ht="28.8">
+      <c r="A27" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="22">
         <v>55</v>
@@ -1092,8 +1095,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="21" t="s">
-        <v>64</v>
+      <c r="A28" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="22">
         <v>2</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="23">
         <v>57</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="22">
         <v>744</v>
@@ -1125,8 +1128,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="27" t="s">
-        <v>77</v>
+      <c r="A31" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="25">
         <v>816</v>
@@ -1137,12 +1140,12 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8">
+      <c r="A36" s="21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="29">
-      <c r="A36" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="B36" s="22">
         <v>3</v>
@@ -1151,9 +1154,9 @@
         <v>5.152868430092751E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29">
-      <c r="A37" s="21" t="s">
-        <v>80</v>
+    <row r="37" spans="1:3" ht="28.8">
+      <c r="A37" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="B37" s="22">
         <v>155</v>
@@ -1163,8 +1166,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="21" t="s">
-        <v>64</v>
+      <c r="A38" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="B38" s="22">
         <v>86</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="23">
         <v>241</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="22">
         <v>5577</v>
@@ -1195,9 +1198,9 @@
         <v>95.791824115424248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="25">
         <v>5822</v>
@@ -1207,8 +1210,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="28" t="s">
-        <v>82</v>
+      <c r="A43" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1221,25 +1224,25 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="15.5">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="15.6">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="15.5">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="15.6">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1254,10 +1257,10 @@
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" ht="12">
       <c r="B4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1385,7 +1388,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1860,38 +1863,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1">
       <c r="A3" s="2"/>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1993,37 +1996,37 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1">
       <c r="A3" s="2"/>
@@ -2107,7 +2110,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2130,28 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1">
       <c r="A3" s="2"/>
@@ -2232,7 +2235,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2248,32 +2251,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1">
       <c r="A3" s="2"/>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
